--- a/data/input_excel/DBLP_controlled_text_generation_language_models.xlsx
+++ b/data/input_excel/DBLP_controlled_text_generation_language_models.xlsx
@@ -375,23 +375,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="68.83203125" customWidth="1"/>
-    <col min="3" max="3" width="91.83203125" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="91.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="109.83203125" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
-    <col min="10" max="10" width="85.83203125" customWidth="1"/>
-    <col min="11" max="11" width="25.83203125" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="41.83203125" customWidth="1"/>
+    <col min="10" max="10" width="160.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="93.83203125" customWidth="1"/>
+    <col min="13" max="13" width="29.83203125" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -402,110 +404,128 @@
         <v>Authors</v>
       </c>
       <c r="C1" t="str">
+        <v>Editors</v>
+      </c>
+      <c r="D1" t="str">
         <v>Title</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Journal</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Publication year</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>Volume</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
+        <v>Pages</v>
+      </c>
+      <c r="I1" t="str">
         <v>Publisher</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>Proceedings title</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>Date published</v>
       </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>URLs</v>
       </c>
-      <c r="K1" t="str">
+      <c r="M1" t="str">
         <v>DOI</v>
       </c>
-      <c r="L1" t="str">
+      <c r="N1" t="str">
         <v>Eprint ID</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B2" t="str">
         <v>Yu S,Lee C,Lee H,Yoon S</v>
       </c>
       <c r="C2" t="str">
+        <v>Ku LW,Martins A,Srikumar V</v>
+      </c>
+      <c r="D2" t="str">
         <v>Controlled Text Generation for Black-box Language Models via Score-based Progressive Editor</v>
       </c>
-      <c r="D2" t="str">
-        <v>CoRR</v>
-      </c>
       <c r="E2" t="str">
-        <v>2023</v>
+        <v/>
       </c>
       <c r="F2" t="str">
-        <v>abs/2311.07430</v>
+        <v>2024</v>
       </c>
       <c r="G2" t="str">
         <v/>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>14215-14237</v>
       </c>
       <c r="I2" t="str">
-        <v>2023</v>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="J2" t="str">
-        <v>https://doi.org/10.48550/arXiv.2311.07430;http://dx.doi.org/10.48550/ARXIV.2311.07430</v>
+        <v>Proceedings of the 62nd Annual Meeting of the Association for Computational Linguistics (Volume 1: Long Papers), ACL 2024, Bangkok, Thailand, August 11-16, 2024</v>
       </c>
       <c r="K2" t="str">
-        <v>10.48550/ARXIV.2311.07430</v>
+        <v>2024</v>
       </c>
       <c r="L2" t="str">
-        <v>2311.07430</v>
+        <v>https://doi.org/10.18653/v1/2024.acl-long.767;http://dx.doi.org/10.18653/V1/2024.ACL-LONG.767</v>
+      </c>
+      <c r="M2" t="str">
+        <v>10.18653/V1/2024.ACL-LONG.767</v>
+      </c>
+      <c r="N2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B3" t="str">
-        <v>Dathathri S,Madotto A,Lan J,Hung J,Frank E,Molino P,Yosinski J,Liu R</v>
+        <v>Zhang C,Lin J,Tong H,Hou B,Zhang D,Li J,Wang J</v>
       </c>
       <c r="C3" t="str">
-        <v>Plug and Play Language Models: A Simple Approach to Controlled Text Generation</v>
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>A Lightweight Multi Aspect Controlled Text Generation Solution For Large Language Models</v>
       </c>
       <c r="E3" t="str">
-        <v>2020</v>
+        <v>CoRR</v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>2024</v>
       </c>
       <c r="G3" t="str">
-        <v>OpenReview.net</v>
+        <v>abs/2410.14144</v>
       </c>
       <c r="H3" t="str">
-        <v>8th International Conference on Learning Representations, ICLR 2020, Addis Ababa, Ethiopia, April 26-30, 2020</v>
+        <v/>
       </c>
       <c r="I3" t="str">
-        <v>2020</v>
+        <v/>
       </c>
       <c r="J3" t="str">
-        <v>https://openreview.net/forum?id=H1edEyBKDS</v>
+        <v/>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>2024</v>
       </c>
       <c r="L3" t="str">
-        <v/>
+        <v>https://doi.org/10.48550/arXiv.2410.14144;http://dx.doi.org/10.48550/ARXIV.2410.14144</v>
+      </c>
+      <c r="M3" t="str">
+        <v>10.48550/ARXIV.2410.14144</v>
+      </c>
+      <c r="N3" t="str">
+        <v>2410.14144</v>
       </c>
     </row>
     <row r="4">
@@ -513,42 +533,136 @@
         <v>Journal Article</v>
       </c>
       <c r="B4" t="str">
+        <v>Yu S,Lee C,Lee H,Yoon S</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v>Controlled Text Generation for Black-box Language Models via Score-based Progressive Editor</v>
+      </c>
+      <c r="E4" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G4" t="str">
+        <v>abs/2311.07430</v>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v>2023</v>
+      </c>
+      <c r="L4" t="str">
+        <v>https://doi.org/10.48550/arXiv.2311.07430;http://dx.doi.org/10.48550/ARXIV.2311.07430</v>
+      </c>
+      <c r="M4" t="str">
+        <v>10.48550/ARXIV.2311.07430</v>
+      </c>
+      <c r="N4" t="str">
+        <v>2311.07430</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B5" t="str">
         <v>Dathathri S,Madotto A,Lan J,Hung J,Frank E,Molino P,Yosinski J,Liu R</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
         <v>Plug and Play Language Models: A Simple Approach to Controlled Text Generation</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v>2020</v>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v>OpenReview.net</v>
+      </c>
+      <c r="J5" t="str">
+        <v>8th International Conference on Learning Representations, ICLR 2020, Addis Ababa, Ethiopia, April 26-30, 2020</v>
+      </c>
+      <c r="K5" t="str">
+        <v>2020</v>
+      </c>
+      <c r="L5" t="str">
+        <v>https://openreview.net/forum?id=H1edEyBKDS</v>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Dathathri S,Madotto A,Lan J,Hung J,Frank E,Molino P,Yosinski J,Liu R</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>Plug and Play Language Models: A Simple Approach to Controlled Text Generation</v>
+      </c>
+      <c r="E6" t="str">
         <v>CoRR</v>
       </c>
-      <c r="E4" t="str">
+      <c r="F6" t="str">
         <v>2019</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G6" t="str">
         <v>abs/1912.02164</v>
       </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
         <v>2019</v>
       </c>
-      <c r="J4" t="str">
+      <c r="L6" t="str">
         <v>http://arxiv.org/abs/1912.02164</v>
       </c>
-      <c r="K4" t="str">
-        <v/>
-      </c>
-      <c r="L4" t="str">
+      <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
         <v>1912.02164</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N6"/>
   </ignoredErrors>
 </worksheet>
 </file>